--- a/04-arquivos-excel/exercicio-proposto-formas-e-mais.xlsx
+++ b/04-arquivos-excel/exercicio-proposto-formas-e-mais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\04-arquivos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C6890-D400-493E-BF70-6BD9C45DFDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22200E9C-03D8-4C7E-9256-611EA51BA6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -447,6 +447,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,6 +608,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -604,6 +620,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,16 +635,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,7 +1044,7 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
@@ -1049,7 +1062,7 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1065,73 +1078,73 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
@@ -1423,7 +1436,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1458,7 +1471,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21"/>
@@ -1476,35 +1489,35 @@
       <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="22"/>
     </row>
     <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="55"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1543,7 @@
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="21"/>
       <c r="D6" s="34">
         <v>45017</v>
@@ -1548,7 +1561,7 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21"/>
@@ -1568,7 +1581,7 @@
       <c r="O7" s="22"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21"/>
       <c r="D8" s="34">
         <v>45019</v>
@@ -1929,15 +1942,15 @@
     <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Menu!A1" display="MENU" xr:uid="{993DDF81-733E-40AE-8651-B2B8A665048F}"/>
@@ -1945,6 +1958,7 @@
     <hyperlink ref="B7:B8" location="Relatório!A1" display="Relatório" xr:uid="{77FA15B8-820B-46F0-AF2A-49522F5DA413}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1988,7 +2002,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21"/>
@@ -2006,7 +2020,7 @@
       <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="21"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -2056,7 +2070,7 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21"/>
@@ -2074,7 +2088,7 @@
       <c r="O7" s="22"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -2416,7 +2430,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -2451,7 +2465,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21"/>
@@ -2469,7 +2483,7 @@
       <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="21"/>
       <c r="D4" s="35"/>
       <c r="E4" s="36" t="s">
@@ -2489,7 +2503,7 @@
       <c r="O4" s="22"/>
     </row>
     <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
@@ -2497,22 +2511,22 @@
       <c r="E5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="48" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="57" t="s">
@@ -2523,7 +2537,7 @@
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="21"/>
       <c r="D6" s="35"/>
       <c r="E6" s="38" t="s">
@@ -2541,7 +2555,7 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21"/>
@@ -2561,7 +2575,7 @@
       <c r="O7" s="22"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="21"/>
       <c r="D8" s="35"/>
       <c r="E8" s="43" t="s">
